--- a/CETC/ExcelFile/device_info_threshold.xlsx
+++ b/CETC/ExcelFile/device_info_threshold.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9422" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="187">
   <si>
     <t>NO</t>
   </si>
@@ -540,6 +540,217 @@
     <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MachineNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -582,9 +793,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -886,28 +1099,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ED73"/>
+  <dimension ref="A1:EE73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,401 +1131,404 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>74</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>83</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>84</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>85</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>87</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>88</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>89</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>90</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>91</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>92</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>93</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>94</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>95</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>97</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>98</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>99</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>100</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>101</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>102</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>103</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>104</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>105</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>106</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>107</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>108</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>109</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>110</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>111</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>112</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>113</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>114</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>115</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>116</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>117</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>118</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>119</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>120</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>121</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>122</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>123</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>124</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>125</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>126</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>127</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>128</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>129</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>130</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>132</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>133</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>134</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>135</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>136</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>137</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>138</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>139</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>140</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>141</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>142</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>143</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>144</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>145</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>146</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>147</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>148</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>149</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>150</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>151</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>152</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>153</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>154</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>155</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>156</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>157</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>158</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>159</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>160</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>161</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>162</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>163</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>164</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>165</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>166</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>167</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>168</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1321,48 +1538,48 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
-        <v>170</v>
-      </c>
       <c r="R2" t="s">
         <v>170</v>
       </c>
@@ -1714,8 +1931,11 @@
       <c r="ED2" t="s">
         <v>170</v>
       </c>
+      <c r="EE2" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1725,48 +1945,48 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
-        <v>170</v>
-      </c>
       <c r="R3" t="s">
         <v>170</v>
       </c>
@@ -2118,8 +2338,11 @@
       <c r="ED3" t="s">
         <v>170</v>
       </c>
+      <c r="EE3" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2129,48 +2352,48 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
-        <v>170</v>
-      </c>
       <c r="R4" t="s">
         <v>170</v>
       </c>
@@ -2522,8 +2745,11 @@
       <c r="ED4" t="s">
         <v>170</v>
       </c>
+      <c r="EE4" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2533,48 +2759,48 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
-        <v>170</v>
-      </c>
       <c r="R5" t="s">
         <v>170</v>
       </c>
@@ -2926,8 +3152,11 @@
       <c r="ED5" t="s">
         <v>170</v>
       </c>
+      <c r="EE5" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2937,48 +3166,48 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>100</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
-        <v>170</v>
-      </c>
       <c r="R6" t="s">
         <v>170</v>
       </c>
@@ -3330,8 +3559,11 @@
       <c r="ED6" t="s">
         <v>170</v>
       </c>
+      <c r="EE6" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3341,48 +3573,48 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>8</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
-        <v>170</v>
-      </c>
       <c r="R7" t="s">
         <v>170</v>
       </c>
@@ -3734,8 +3966,11 @@
       <c r="ED7" t="s">
         <v>170</v>
       </c>
+      <c r="EE7" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3745,48 +3980,48 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>10</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>8</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" t="s">
-        <v>170</v>
-      </c>
       <c r="R8" t="s">
         <v>170</v>
       </c>
@@ -4138,8 +4373,11 @@
       <c r="ED8" t="s">
         <v>170</v>
       </c>
+      <c r="EE8" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4149,48 +4387,48 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>8</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>10</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>8</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" t="s">
-        <v>170</v>
-      </c>
       <c r="R9" t="s">
         <v>170</v>
       </c>
@@ -4542,8 +4780,11 @@
       <c r="ED9" t="s">
         <v>170</v>
       </c>
+      <c r="EE9" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4553,48 +4794,48 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>8</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>8</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" t="s">
-        <v>170</v>
-      </c>
       <c r="R10" t="s">
         <v>170</v>
       </c>
@@ -4946,8 +5187,11 @@
       <c r="ED10" t="s">
         <v>170</v>
       </c>
+      <c r="EE10" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4957,48 +5201,48 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>8</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>8</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" t="s">
-        <v>170</v>
-      </c>
       <c r="R11" t="s">
         <v>170</v>
       </c>
@@ -5350,8 +5594,11 @@
       <c r="ED11" t="s">
         <v>170</v>
       </c>
+      <c r="EE11" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5361,48 +5608,48 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>100</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>8</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>8</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
-        <v>170</v>
-      </c>
       <c r="R12" t="s">
         <v>170</v>
       </c>
@@ -5754,8 +6001,11 @@
       <c r="ED12" t="s">
         <v>170</v>
       </c>
+      <c r="EE12" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5765,48 +6015,48 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>100</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>8</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>9</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>10</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>8</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" t="s">
-        <v>170</v>
-      </c>
       <c r="R13" t="s">
         <v>170</v>
       </c>
@@ -6158,8 +6408,11 @@
       <c r="ED13" t="s">
         <v>170</v>
       </c>
+      <c r="EE13" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6169,48 +6422,48 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>8</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>8</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>8</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" t="s">
-        <v>170</v>
-      </c>
       <c r="R14" t="s">
         <v>170</v>
       </c>
@@ -6562,8 +6815,11 @@
       <c r="ED14" t="s">
         <v>170</v>
       </c>
+      <c r="EE14" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6573,48 +6829,48 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>8</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>8</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>10</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>8</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" t="s">
-        <v>170</v>
-      </c>
       <c r="R15" t="s">
         <v>170</v>
       </c>
@@ -6966,8 +7222,11 @@
       <c r="ED15" t="s">
         <v>170</v>
       </c>
+      <c r="EE15" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="16" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6977,48 +7236,48 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>100</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>8</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>8</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" t="s">
-        <v>170</v>
-      </c>
       <c r="R16" t="s">
         <v>170</v>
       </c>
@@ -7370,8 +7629,11 @@
       <c r="ED16" t="s">
         <v>170</v>
       </c>
+      <c r="EE16" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="17" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7381,48 +7643,48 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>100</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>9</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>10</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>8</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" t="s">
-        <v>170</v>
-      </c>
       <c r="R17" t="s">
         <v>170</v>
       </c>
@@ -7774,8 +8036,11 @@
       <c r="ED17" t="s">
         <v>170</v>
       </c>
+      <c r="EE17" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="18" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7785,48 +8050,48 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>100</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>8</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>8</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>10</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>8</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" t="s">
-        <v>170</v>
-      </c>
       <c r="R18" t="s">
         <v>170</v>
       </c>
@@ -8178,8 +8443,11 @@
       <c r="ED18" t="s">
         <v>170</v>
       </c>
+      <c r="EE18" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="19" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8189,48 +8457,48 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>8</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>8</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>10</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>8</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" t="s">
-        <v>170</v>
-      </c>
       <c r="R19" t="s">
         <v>170</v>
       </c>
@@ -8582,8 +8850,11 @@
       <c r="ED19" t="s">
         <v>170</v>
       </c>
+      <c r="EE19" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="20" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8593,48 +8864,48 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>100</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>9</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>8</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>8</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" t="s">
-        <v>170</v>
-      </c>
       <c r="R20" t="s">
         <v>170</v>
       </c>
@@ -8986,8 +9257,11 @@
       <c r="ED20" t="s">
         <v>170</v>
       </c>
+      <c r="EE20" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="21" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8997,48 +9271,48 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>100</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>9</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>8</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>10</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" t="s">
-        <v>170</v>
-      </c>
       <c r="R21" t="s">
         <v>170</v>
       </c>
@@ -9390,8 +9664,11 @@
       <c r="ED21" t="s">
         <v>170</v>
       </c>
+      <c r="EE21" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="22" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9401,48 +9678,48 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>7</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>100</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>10</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>9</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>8</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>10</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>8</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" t="s">
-        <v>170</v>
-      </c>
       <c r="R22" t="s">
         <v>170</v>
       </c>
@@ -9794,8 +10071,11 @@
       <c r="ED22" t="s">
         <v>170</v>
       </c>
+      <c r="EE22" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="23" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9805,48 +10085,48 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>7</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>100</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>9</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>8</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>10</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>8</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" t="s">
-        <v>170</v>
-      </c>
       <c r="R23" t="s">
         <v>170</v>
       </c>
@@ -10198,8 +10478,11 @@
       <c r="ED23" t="s">
         <v>170</v>
       </c>
+      <c r="EE23" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="24" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10209,48 +10492,48 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>100</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>9</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>8</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>10</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>8</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" t="s">
-        <v>170</v>
-      </c>
       <c r="R24" t="s">
         <v>170</v>
       </c>
@@ -10602,8 +10885,11 @@
       <c r="ED24" t="s">
         <v>170</v>
       </c>
+      <c r="EE24" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="25" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10613,48 +10899,48 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>7</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>100</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>10</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>8</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>9</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>8</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>10</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>8</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" t="s">
-        <v>170</v>
-      </c>
       <c r="R25" t="s">
         <v>170</v>
       </c>
@@ -11006,8 +11292,11 @@
       <c r="ED25" t="s">
         <v>170</v>
       </c>
+      <c r="EE25" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="26" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11017,48 +11306,48 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>8</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>100</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>10</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>8</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>9</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>8</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>10</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>8</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" t="s">
-        <v>170</v>
-      </c>
       <c r="R26" t="s">
         <v>170</v>
       </c>
@@ -11410,8 +11699,11 @@
       <c r="ED26" t="s">
         <v>170</v>
       </c>
+      <c r="EE26" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="27" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11421,48 +11713,48 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>100</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>10</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>8</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>9</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>8</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>10</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>8</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" t="s">
-        <v>170</v>
-      </c>
       <c r="R27" t="s">
         <v>170</v>
       </c>
@@ -11814,8 +12106,11 @@
       <c r="ED27" t="s">
         <v>170</v>
       </c>
+      <c r="EE27" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="28" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11825,48 +12120,48 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>7</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>100</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>10</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>8</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>9</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>8</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>10</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>8</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" t="s">
-        <v>170</v>
-      </c>
       <c r="R28" t="s">
         <v>170</v>
       </c>
@@ -12218,8 +12513,11 @@
       <c r="ED28" t="s">
         <v>170</v>
       </c>
+      <c r="EE28" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="29" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12229,48 +12527,48 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>8</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>100</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>8</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>9</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>8</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>10</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>8</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" t="s">
-        <v>170</v>
-      </c>
       <c r="R29" t="s">
         <v>170</v>
       </c>
@@ -12622,8 +12920,11 @@
       <c r="ED29" t="s">
         <v>170</v>
       </c>
+      <c r="EE29" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="30" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12633,48 +12934,48 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>8</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>100</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>10</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>9</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>8</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>10</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>8</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>10</v>
       </c>
-      <c r="Q30" t="s">
-        <v>170</v>
-      </c>
       <c r="R30" t="s">
         <v>170</v>
       </c>
@@ -13026,8 +13327,11 @@
       <c r="ED30" t="s">
         <v>170</v>
       </c>
+      <c r="EE30" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="31" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13037,48 +13341,48 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>8</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>100</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>10</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>8</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>9</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>8</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>10</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>8</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" t="s">
-        <v>170</v>
-      </c>
       <c r="R31" t="s">
         <v>170</v>
       </c>
@@ -13430,8 +13734,11 @@
       <c r="ED31" t="s">
         <v>170</v>
       </c>
+      <c r="EE31" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="32" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13441,48 +13748,48 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>7</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>8</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>100</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>8</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>9</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>8</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>10</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>8</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" t="s">
-        <v>170</v>
-      </c>
       <c r="R32" t="s">
         <v>170</v>
       </c>
@@ -13834,8 +14141,11 @@
       <c r="ED32" t="s">
         <v>170</v>
       </c>
+      <c r="EE32" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="33" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13845,48 +14155,48 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>12</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>8</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>100</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>10</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>8</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>8</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>10</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>8</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" t="s">
-        <v>170</v>
-      </c>
       <c r="R33" t="s">
         <v>170</v>
       </c>
@@ -14238,8 +14548,11 @@
       <c r="ED33" t="s">
         <v>170</v>
       </c>
+      <c r="EE33" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="34" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14249,48 +14562,48 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>7</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>8</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>100</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>10</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>8</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>9</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>8</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>10</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>8</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" t="s">
-        <v>170</v>
-      </c>
       <c r="R34" t="s">
         <v>170</v>
       </c>
@@ -14642,8 +14955,11 @@
       <c r="ED34" t="s">
         <v>170</v>
       </c>
+      <c r="EE34" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="35" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14653,48 +14969,48 @@
       <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>7</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>8</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>10</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>8</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>9</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>8</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>10</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>8</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" t="s">
-        <v>170</v>
-      </c>
       <c r="R35" t="s">
         <v>170</v>
       </c>
@@ -15046,8 +15362,11 @@
       <c r="ED35" t="s">
         <v>170</v>
       </c>
+      <c r="EE35" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="36" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15057,48 +15376,48 @@
       <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>8</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>10</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>8</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>9</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>8</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>10</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>8</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" t="s">
-        <v>170</v>
-      </c>
       <c r="R36" t="s">
         <v>170</v>
       </c>
@@ -15450,8 +15769,11 @@
       <c r="ED36" t="s">
         <v>170</v>
       </c>
+      <c r="EE36" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="37" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15461,48 +15783,48 @@
       <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>7</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>8</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>100</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>10</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>8</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>9</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>8</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>10</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>8</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" t="s">
-        <v>170</v>
-      </c>
       <c r="R37" t="s">
         <v>170</v>
       </c>
@@ -15854,8 +16176,11 @@
       <c r="ED37" t="s">
         <v>170</v>
       </c>
+      <c r="EE37" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="38" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15865,48 +16190,48 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>8</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>100</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>10</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>8</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>9</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>8</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>10</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>8</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" t="s">
-        <v>170</v>
-      </c>
       <c r="R38" t="s">
         <v>170</v>
       </c>
@@ -16258,8 +16583,11 @@
       <c r="ED38" t="s">
         <v>170</v>
       </c>
+      <c r="EE38" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16269,48 +16597,48 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>8</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>100</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>10</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>8</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>9</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>10</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>8</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>10</v>
       </c>
-      <c r="Q39" t="s">
-        <v>170</v>
-      </c>
       <c r="R39" t="s">
         <v>170</v>
       </c>
@@ -16662,8 +16990,11 @@
       <c r="ED39" t="s">
         <v>170</v>
       </c>
+      <c r="EE39" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="40" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16673,48 +17004,48 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>7</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>8</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>100</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>10</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>8</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>9</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>8</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>10</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>8</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" t="s">
-        <v>170</v>
-      </c>
       <c r="R40" t="s">
         <v>170</v>
       </c>
@@ -17066,8 +17397,11 @@
       <c r="ED40" t="s">
         <v>170</v>
       </c>
+      <c r="EE40" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="41" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17077,48 +17411,48 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>7</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>8</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>100</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>10</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>8</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>8</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>10</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>8</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" t="s">
-        <v>170</v>
-      </c>
       <c r="R41" t="s">
         <v>170</v>
       </c>
@@ -17470,8 +17804,11 @@
       <c r="ED41" t="s">
         <v>170</v>
       </c>
+      <c r="EE41" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="42" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17481,48 +17818,48 @@
       <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>5</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>8</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>100</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>10</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>8</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>9</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>8</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>10</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>8</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" t="s">
-        <v>170</v>
-      </c>
       <c r="R42" t="s">
         <v>170</v>
       </c>
@@ -17874,8 +18211,11 @@
       <c r="ED42" t="s">
         <v>170</v>
       </c>
+      <c r="EE42" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="43" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17885,48 +18225,48 @@
       <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>7</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>8</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>100</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>10</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>8</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>9</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>8</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>10</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>8</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" t="s">
-        <v>170</v>
-      </c>
       <c r="R43" t="s">
         <v>170</v>
       </c>
@@ -18278,8 +18618,11 @@
       <c r="ED43" t="s">
         <v>170</v>
       </c>
+      <c r="EE43" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="44" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18289,48 +18632,48 @@
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>5</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>8</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>100</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>10</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>8</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>9</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>8</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>10</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>8</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" t="s">
-        <v>170</v>
-      </c>
       <c r="R44" t="s">
         <v>170</v>
       </c>
@@ -18682,8 +19025,11 @@
       <c r="ED44" t="s">
         <v>170</v>
       </c>
+      <c r="EE44" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="45" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18693,48 +19039,48 @@
       <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>8</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>100</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>10</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>8</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>9</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>8</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>10</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>8</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" t="s">
-        <v>170</v>
-      </c>
       <c r="R45" t="s">
         <v>170</v>
       </c>
@@ -19086,8 +19432,11 @@
       <c r="ED45" t="s">
         <v>170</v>
       </c>
+      <c r="EE45" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="46" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -19097,48 +19446,48 @@
       <c r="C46" t="s">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>7</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>8</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>100</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>10</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>8</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>9</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>8</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>10</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>8</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" t="s">
-        <v>170</v>
-      </c>
       <c r="R46" t="s">
         <v>170</v>
       </c>
@@ -19490,8 +19839,11 @@
       <c r="ED46" t="s">
         <v>170</v>
       </c>
+      <c r="EE46" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="47" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -19501,48 +19853,48 @@
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>7</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>8</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>100</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>10</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>8</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>9</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>8</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>10</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>8</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" t="s">
-        <v>170</v>
-      </c>
       <c r="R47" t="s">
         <v>170</v>
       </c>
@@ -19894,8 +20246,11 @@
       <c r="ED47" t="s">
         <v>170</v>
       </c>
+      <c r="EE47" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="48" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19905,48 +20260,48 @@
       <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>5</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>8</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>100</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>10</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>8</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>9</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>8</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>10</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>8</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" t="s">
-        <v>170</v>
-      </c>
       <c r="R48" t="s">
         <v>170</v>
       </c>
@@ -20298,8 +20653,11 @@
       <c r="ED48" t="s">
         <v>170</v>
       </c>
+      <c r="EE48" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="49" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -20309,48 +20667,48 @@
       <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>7</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>5</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>8</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>100</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>10</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>8</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>9</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>8</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>10</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>8</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" t="s">
-        <v>170</v>
-      </c>
       <c r="R49" t="s">
         <v>170</v>
       </c>
@@ -20702,8 +21060,11 @@
       <c r="ED49" t="s">
         <v>170</v>
       </c>
+      <c r="EE49" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="50" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -20713,48 +21074,48 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>5</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>8</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>100</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>10</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>8</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>9</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>8</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>10</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>8</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" t="s">
-        <v>170</v>
-      </c>
       <c r="R50" t="s">
         <v>170</v>
       </c>
@@ -21106,8 +21467,11 @@
       <c r="ED50" t="s">
         <v>170</v>
       </c>
+      <c r="EE50" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="51" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -21117,48 +21481,48 @@
       <c r="C51" t="s">
         <v>25</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>100</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>10</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>8</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>9</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>8</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>10</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>8</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>10</v>
       </c>
-      <c r="Q51" t="s">
-        <v>170</v>
-      </c>
       <c r="R51" t="s">
         <v>170</v>
       </c>
@@ -21510,8 +21874,11 @@
       <c r="ED51" t="s">
         <v>170</v>
       </c>
+      <c r="EE51" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="52" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -21521,48 +21888,48 @@
       <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>7</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>8</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>100</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>10</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>8</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>9</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>8</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>10</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>8</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" t="s">
-        <v>170</v>
-      </c>
       <c r="R52" t="s">
         <v>170</v>
       </c>
@@ -21914,8 +22281,11 @@
       <c r="ED52" t="s">
         <v>170</v>
       </c>
+      <c r="EE52" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="53" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -21925,48 +22295,48 @@
       <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>8</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>100</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>10</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>8</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>9</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>8</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>10</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>8</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>10</v>
       </c>
-      <c r="Q53" t="s">
-        <v>170</v>
-      </c>
       <c r="R53" t="s">
         <v>170</v>
       </c>
@@ -22318,8 +22688,11 @@
       <c r="ED53" t="s">
         <v>170</v>
       </c>
+      <c r="EE53" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="54" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -22329,48 +22702,48 @@
       <c r="C54" t="s">
         <v>28</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>12</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>5</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>8</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>100</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>10</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>8</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>9</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>8</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>10</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>8</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>10</v>
       </c>
-      <c r="Q54" t="s">
-        <v>170</v>
-      </c>
       <c r="R54" t="s">
         <v>170</v>
       </c>
@@ -22722,8 +23095,11 @@
       <c r="ED54" t="s">
         <v>170</v>
       </c>
+      <c r="EE54" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="55" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -22733,48 +23109,48 @@
       <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>7</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>5</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>8</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>100</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>10</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>8</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>9</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>8</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>10</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>8</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>10</v>
       </c>
-      <c r="Q55" t="s">
-        <v>170</v>
-      </c>
       <c r="R55" t="s">
         <v>170</v>
       </c>
@@ -23126,8 +23502,11 @@
       <c r="ED55" t="s">
         <v>170</v>
       </c>
+      <c r="EE55" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="56" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -23137,48 +23516,48 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>7</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>5</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>8</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>100</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>10</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>8</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>9</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>8</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>10</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>8</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>10</v>
       </c>
-      <c r="Q56" t="s">
-        <v>170</v>
-      </c>
       <c r="R56" t="s">
         <v>170</v>
       </c>
@@ -23530,8 +23909,11 @@
       <c r="ED56" t="s">
         <v>170</v>
       </c>
+      <c r="EE56" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="57" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -23541,48 +23923,48 @@
       <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>12</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>5</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>8</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>100</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>10</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>8</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>9</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>8</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>10</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>8</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" t="s">
-        <v>170</v>
-      </c>
       <c r="R57" t="s">
         <v>170</v>
       </c>
@@ -23934,8 +24316,11 @@
       <c r="ED57" t="s">
         <v>170</v>
       </c>
+      <c r="EE57" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="58" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -23945,48 +24330,48 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>7</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>8</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>100</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>10</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>8</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>9</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>8</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>10</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>8</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" t="s">
-        <v>170</v>
-      </c>
       <c r="R58" t="s">
         <v>170</v>
       </c>
@@ -24338,8 +24723,11 @@
       <c r="ED58" t="s">
         <v>170</v>
       </c>
+      <c r="EE58" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="59" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -24349,48 +24737,48 @@
       <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>7</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>5</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>8</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>100</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>10</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>8</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>9</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>8</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>10</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>8</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" t="s">
-        <v>170</v>
-      </c>
       <c r="R59" t="s">
         <v>170</v>
       </c>
@@ -24742,8 +25130,11 @@
       <c r="ED59" t="s">
         <v>170</v>
       </c>
+      <c r="EE59" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="60" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -24753,48 +25144,48 @@
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>5</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>100</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>10</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>8</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>9</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>8</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>10</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>8</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" t="s">
-        <v>170</v>
-      </c>
       <c r="R60" t="s">
         <v>170</v>
       </c>
@@ -25146,8 +25537,11 @@
       <c r="ED60" t="s">
         <v>170</v>
       </c>
+      <c r="EE60" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="61" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -25157,48 +25551,48 @@
       <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
         <v>14</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>5</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>8</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>100</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>10</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>8</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>9</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>8</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>10</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>8</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>10</v>
       </c>
-      <c r="Q61" t="s">
-        <v>170</v>
-      </c>
       <c r="R61" t="s">
         <v>170</v>
       </c>
@@ -25550,8 +25944,11 @@
       <c r="ED61" t="s">
         <v>170</v>
       </c>
+      <c r="EE61" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="62" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -25561,48 +25958,48 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>7</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>5</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>8</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>100</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>10</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>8</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>9</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>8</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>10</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>8</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" t="s">
-        <v>170</v>
-      </c>
       <c r="R62" t="s">
         <v>170</v>
       </c>
@@ -25954,8 +26351,11 @@
       <c r="ED62" t="s">
         <v>170</v>
       </c>
+      <c r="EE62" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="63" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -25965,48 +26365,48 @@
       <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>12</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>8</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>100</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>10</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>8</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>9</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>8</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>10</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>8</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>10</v>
       </c>
-      <c r="Q63" t="s">
-        <v>170</v>
-      </c>
       <c r="R63" t="s">
         <v>170</v>
       </c>
@@ -26358,8 +26758,11 @@
       <c r="ED63" t="s">
         <v>170</v>
       </c>
+      <c r="EE63" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="64" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -26369,48 +26772,48 @@
       <c r="C64" t="s">
         <v>20</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>7</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>5</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>100</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>10</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>8</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>9</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>8</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>10</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>8</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>10</v>
       </c>
-      <c r="Q64" t="s">
-        <v>170</v>
-      </c>
       <c r="R64" t="s">
         <v>170</v>
       </c>
@@ -26762,8 +27165,11 @@
       <c r="ED64" t="s">
         <v>170</v>
       </c>
+      <c r="EE64" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="65" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -26773,48 +27179,48 @@
       <c r="C65" t="s">
         <v>21</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>7</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>5</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>8</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>100</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>10</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>8</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>9</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>8</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>10</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>8</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>10</v>
       </c>
-      <c r="Q65" t="s">
-        <v>170</v>
-      </c>
       <c r="R65" t="s">
         <v>170</v>
       </c>
@@ -27166,8 +27572,11 @@
       <c r="ED65" t="s">
         <v>170</v>
       </c>
+      <c r="EE65" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="66" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -27177,48 +27586,48 @@
       <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>12</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>5</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>8</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>100</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>10</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>8</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>9</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>8</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>10</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>8</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" t="s">
-        <v>170</v>
-      </c>
       <c r="R66" t="s">
         <v>170</v>
       </c>
@@ -27570,8 +27979,11 @@
       <c r="ED66" t="s">
         <v>170</v>
       </c>
+      <c r="EE66" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="67" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -27581,48 +27993,48 @@
       <c r="C67" t="s">
         <v>23</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" t="s">
         <v>14</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>7</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>100</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>10</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>8</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>9</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>8</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>10</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>8</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>10</v>
       </c>
-      <c r="Q67" t="s">
-        <v>170</v>
-      </c>
       <c r="R67" t="s">
         <v>170</v>
       </c>
@@ -27974,8 +28386,11 @@
       <c r="ED67" t="s">
         <v>170</v>
       </c>
+      <c r="EE67" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="68" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -27985,48 +28400,48 @@
       <c r="C68" t="s">
         <v>24</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>7</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>8</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>100</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>10</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>8</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>9</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>8</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>10</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>8</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>10</v>
       </c>
-      <c r="Q68" t="s">
-        <v>170</v>
-      </c>
       <c r="R68" t="s">
         <v>170</v>
       </c>
@@ -28378,8 +28793,11 @@
       <c r="ED68" t="s">
         <v>170</v>
       </c>
+      <c r="EE68" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="69" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -28389,48 +28807,48 @@
       <c r="C69" t="s">
         <v>25</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>12</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>5</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>8</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>100</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>10</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>8</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>9</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>8</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>10</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>8</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>10</v>
       </c>
-      <c r="Q69" t="s">
-        <v>170</v>
-      </c>
       <c r="R69" t="s">
         <v>170</v>
       </c>
@@ -28782,8 +29200,11 @@
       <c r="ED69" t="s">
         <v>170</v>
       </c>
+      <c r="EE69" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="70" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -28793,48 +29214,48 @@
       <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>7</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>5</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>8</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>100</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>10</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>8</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>9</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>8</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>10</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>8</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>10</v>
       </c>
-      <c r="Q70" t="s">
-        <v>170</v>
-      </c>
       <c r="R70" t="s">
         <v>170</v>
       </c>
@@ -29186,8 +29607,11 @@
       <c r="ED70" t="s">
         <v>170</v>
       </c>
+      <c r="EE70" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="71" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -29197,48 +29621,48 @@
       <c r="C71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" t="s">
         <v>6</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>7</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>100</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>10</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>8</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>9</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>8</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>10</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>8</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>10</v>
       </c>
-      <c r="Q71" t="s">
-        <v>170</v>
-      </c>
       <c r="R71" t="s">
         <v>170</v>
       </c>
@@ -29590,8 +30014,11 @@
       <c r="ED71" t="s">
         <v>170</v>
       </c>
+      <c r="EE71" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="72" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -29601,48 +30028,48 @@
       <c r="C72" t="s">
         <v>28</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
         <v>6</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>12</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>5</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>8</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>100</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>10</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>8</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>9</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>8</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>10</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>8</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" t="s">
-        <v>170</v>
-      </c>
       <c r="R72" t="s">
         <v>170</v>
       </c>
@@ -29994,8 +30421,11 @@
       <c r="ED72" t="s">
         <v>170</v>
       </c>
+      <c r="EE72" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="73" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -30005,48 +30435,48 @@
       <c r="C73" t="s">
         <v>29</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" t="s">
         <v>14</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>7</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>8</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>100</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>10</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>8</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>9</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>8</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>10</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>8</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>10</v>
       </c>
-      <c r="Q73" t="s">
-        <v>170</v>
-      </c>
       <c r="R73" t="s">
         <v>170</v>
       </c>
@@ -30396,6 +30826,9 @@
         <v>170</v>
       </c>
       <c r="ED73" t="s">
+        <v>170</v>
+      </c>
+      <c r="EE73" t="s">
         <v>170</v>
       </c>
     </row>
